--- a/DATA_goal/Junction_Flooding_76.xlsx
+++ b/DATA_goal/Junction_Flooding_76.xlsx
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="7" customWidth="1" min="3" max="3"/>
+    <col width="6" customWidth="1" min="2" max="2"/>
+    <col width="6" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
     <col width="7" customWidth="1" min="5" max="5"/>
     <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
+    <col width="6" customWidth="1" min="7" max="7"/>
     <col width="7" customWidth="1" min="8" max="8"/>
     <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="7" customWidth="1" min="10" max="10"/>
-    <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
+    <col width="6" customWidth="1" min="10" max="10"/>
+    <col width="6" customWidth="1" min="11" max="11"/>
+    <col width="6" customWidth="1" min="12" max="12"/>
+    <col width="6" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="7" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="7" customWidth="1" min="17" max="17"/>
+    <col width="6" customWidth="1" min="15" max="15"/>
+    <col width="6" customWidth="1" min="16" max="16"/>
+    <col width="6" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
     <col width="8" customWidth="1" min="20" max="20"/>
     <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="7" customWidth="1" min="22" max="22"/>
+    <col width="6" customWidth="1" min="22" max="22"/>
     <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="7" customWidth="1" min="24" max="24"/>
+    <col width="6" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
     <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="7" customWidth="1" min="27" max="27"/>
-    <col width="7" customWidth="1" min="28" max="28"/>
-    <col width="7" customWidth="1" min="29" max="29"/>
-    <col width="7" customWidth="1" min="30" max="30"/>
+    <col width="6" customWidth="1" min="27" max="27"/>
+    <col width="6" customWidth="1" min="28" max="28"/>
+    <col width="6" customWidth="1" min="29" max="29"/>
+    <col width="6" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
     <col width="7" customWidth="1" min="32" max="32"/>
     <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="7" customWidth="1" min="34" max="34"/>
+    <col width="6" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -655,103 +655,103 @@
         <v>41508.34027777778</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>21.23</v>
+        <v>2.12</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>14.48</v>
+        <v>1.45</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>4.1</v>
+        <v>0.41</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>44.65</v>
+        <v>4.47</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>36.78</v>
+        <v>3.68</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>16.71</v>
+        <v>1.67</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>54.48</v>
+        <v>5.45</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>25.71</v>
+        <v>2.57</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>10.85</v>
+        <v>1.08</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>16.67</v>
+        <v>1.67</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>17.73</v>
+        <v>1.77</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>18.54</v>
+        <v>1.85</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>5.33</v>
+        <v>0.53</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>16.62</v>
+        <v>1.66</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>23.3</v>
+        <v>2.33</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>14.02</v>
+        <v>1.4</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>3.73</v>
+        <v>0.37</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>2.46</v>
+        <v>0.25</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>245.59</v>
+        <v>24.56</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>46.25</v>
+        <v>4.62</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>15.34</v>
+        <v>1.53</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>30.55</v>
+        <v>3.06</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>15.88</v>
+        <v>1.59</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>2.51</v>
+        <v>0.25</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>27.06</v>
+        <v>2.71</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>13.55</v>
+        <v>1.35</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>12.23</v>
+        <v>1.22</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>14.31</v>
+        <v>1.43</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>18.32</v>
+        <v>1.83</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>3.64</v>
+        <v>0.36</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>48.14</v>
+        <v>4.81</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>8.470000000000001</v>
+        <v>0.85</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>19.18</v>
+        <v>1.92</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>41508.34722222222</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>15.37</v>
+        <v>1.54</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>10.85</v>
+        <v>1.09</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>1.77</v>
+        <v>0.18</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>32.83</v>
+        <v>3.28</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>27.08</v>
+        <v>2.71</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>12.1</v>
+        <v>1.21</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>47.81</v>
+        <v>4.78</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>18.62</v>
+        <v>1.86</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>8.039999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>12.09</v>
+        <v>1.21</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>13.24</v>
+        <v>1.32</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>13.81</v>
+        <v>1.38</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>3.87</v>
+        <v>0.39</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>12.03</v>
+        <v>1.2</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>16.97</v>
+        <v>1.7</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>10.33</v>
+        <v>1.03</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>1.6</v>
+        <v>0.16</v>
       </c>
       <c r="S3" s="4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="T3" s="4" t="n">
+        <v>17.58</v>
+      </c>
+      <c r="U3" s="4" t="n">
+        <v>3.37</v>
+      </c>
+      <c r="V3" s="4" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="W3" s="4" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="X3" s="4" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="Y3" s="4" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="Z3" s="4" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="AA3" s="4" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="AB3" s="4" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="AC3" s="4" t="n">
         <v>1.04</v>
       </c>
-      <c r="T3" s="4" t="n">
-        <v>175.81</v>
-      </c>
-      <c r="U3" s="4" t="n">
-        <v>33.7</v>
-      </c>
-      <c r="V3" s="4" t="n">
-        <v>11.1</v>
-      </c>
-      <c r="W3" s="4" t="n">
-        <v>22.34</v>
-      </c>
-      <c r="X3" s="4" t="n">
-        <v>11.87</v>
-      </c>
-      <c r="Y3" s="4" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="Z3" s="4" t="n">
-        <v>22.85</v>
-      </c>
-      <c r="AA3" s="4" t="n">
-        <v>9.81</v>
-      </c>
-      <c r="AB3" s="4" t="n">
-        <v>8.880000000000001</v>
-      </c>
-      <c r="AC3" s="4" t="n">
-        <v>10.4</v>
-      </c>
       <c r="AD3" s="4" t="n">
-        <v>13.78</v>
+        <v>1.38</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>1.29</v>
+        <v>0.13</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>43.38</v>
+        <v>4.34</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>6.14</v>
+        <v>0.61</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>13.88</v>
+        <v>1.39</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>41508.35416666666</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>12.3</v>
+        <v>1.23</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>8.779999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>1.18</v>
+        <v>0.12</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>26.36</v>
+        <v>2.64</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>21.74</v>
+        <v>2.17</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>9.68</v>
+        <v>0.97</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>38.94</v>
+        <v>3.89</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>14.89</v>
+        <v>1.49</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>6.48</v>
+        <v>0.65</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>9.68</v>
+        <v>0.97</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>10.67</v>
+        <v>1.07</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>11.13</v>
+        <v>1.11</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>3.09</v>
+        <v>0.31</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>9.619999999999999</v>
+        <v>0.96</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>13.6</v>
+        <v>1.36</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>8.27</v>
+        <v>0.83</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>1.04</v>
+        <v>0.1</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.7</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>139.18</v>
+        <v>13.92</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>26.96</v>
+        <v>2.7</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>8.880000000000001</v>
+        <v>0.89</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>17.91</v>
+        <v>1.79</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>9.56</v>
+        <v>0.96</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>1.47</v>
+        <v>0.15</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>18.44</v>
+        <v>1.84</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>7.85</v>
+        <v>0.78</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>7.08</v>
+        <v>0.71</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>8.300000000000001</v>
+        <v>0.83</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>11.13</v>
+        <v>1.11</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.78</v>
+        <v>0.08</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>35.28</v>
+        <v>3.53</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>4.92</v>
+        <v>0.49</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>11.11</v>
+        <v>1.11</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>41508.36111111111</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>13.07</v>
+        <v>1.31</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>9.48</v>
+        <v>0.95</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.99</v>
+        <v>0.1</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>28.14</v>
+        <v>2.81</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>23.21</v>
+        <v>2.32</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>10.28</v>
+        <v>1.03</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>40.16</v>
+        <v>4.02</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>15.82</v>
+        <v>1.58</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>6.95</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>10.36</v>
+        <v>1.04</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>11.38</v>
+        <v>1.14</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>11.91</v>
+        <v>1.19</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>3.28</v>
+        <v>0.33</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>10.23</v>
+        <v>1.02</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>14.49</v>
+        <v>1.45</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>8.720000000000001</v>
+        <v>0.87</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.8</v>
+        <v>0.08</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.61</v>
+        <v>0.06</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>148.32</v>
+        <v>14.83</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>28.6</v>
+        <v>2.86</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>9.44</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>19.1</v>
+        <v>1.91</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>10.18</v>
+        <v>1.02</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>1.52</v>
+        <v>0.15</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>19.24</v>
+        <v>1.92</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>8.34</v>
+        <v>0.83</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>7.47</v>
+        <v>0.75</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>8.76</v>
+        <v>0.88</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>11.9</v>
+        <v>1.19</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>36.35</v>
+        <v>3.63</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>5.26</v>
+        <v>0.53</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>11.8</v>
+        <v>1.18</v>
       </c>
     </row>
     <row r="6">
@@ -1071,103 +1071,103 @@
         <v>41508.36805555555</v>
       </c>
       <c r="B6" s="4" t="n">
-        <v>11.05</v>
+        <v>1.1</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>8.029999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="D6" s="4" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="F6" s="4" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="G6" s="4" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="H6" s="4" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="I6" s="4" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="J6" s="4" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="K6" s="4" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="L6" s="4" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="M6" s="4" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N6" s="4" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="O6" s="4" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="P6" s="4" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="Q6" s="4" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="R6" s="4" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="S6" s="4" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="T6" s="4" t="n">
+        <v>12.43</v>
+      </c>
+      <c r="U6" s="4" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="V6" s="4" t="n">
         <v>0.8</v>
       </c>
-      <c r="E6" s="4" t="n">
-        <v>23.82</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>19.63</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>8.699999999999999</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>34.78</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>13.38</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>5.89</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>8.76</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>9.640000000000001</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>10.08</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>2.78</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>8.65</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>12.26</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>7.37</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.64</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>124.29</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>24.22</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>7.98</v>
-      </c>
       <c r="W6" s="4" t="n">
-        <v>16.18</v>
+        <v>1.62</v>
       </c>
       <c r="X6" s="4" t="n">
-        <v>8.619999999999999</v>
+        <v>0.86</v>
       </c>
       <c r="Y6" s="4" t="n">
-        <v>1.29</v>
+        <v>0.13</v>
       </c>
       <c r="Z6" s="4" t="n">
-        <v>16.58</v>
+        <v>1.66</v>
       </c>
       <c r="AA6" s="4" t="n">
-        <v>7.05</v>
+        <v>0.71</v>
       </c>
       <c r="AB6" s="4" t="n">
-        <v>6.31</v>
+        <v>0.63</v>
       </c>
       <c r="AC6" s="4" t="n">
-        <v>7.4</v>
+        <v>0.74</v>
       </c>
       <c r="AD6" s="4" t="n">
-        <v>10.08</v>
+        <v>1.01</v>
       </c>
       <c r="AE6" s="4" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="AF6" s="4" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="AG6" s="4" t="n">
         <v>0.44</v>
       </c>
-      <c r="AF6" s="4" t="n">
-        <v>31.55</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>4.45</v>
-      </c>
       <c r="AH6" s="4" t="n">
-        <v>9.98</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -1175,103 +1175,103 @@
         <v>41508.375</v>
       </c>
       <c r="B7" s="4" t="n">
-        <v>23.16</v>
+        <v>2.32</v>
       </c>
       <c r="C7" s="4" t="n">
-        <v>17.17</v>
+        <v>1.72</v>
       </c>
       <c r="D7" s="4" t="n">
-        <v>1.13</v>
+        <v>0.11</v>
       </c>
       <c r="E7" s="4" t="n">
-        <v>50.19</v>
+        <v>5.02</v>
       </c>
       <c r="F7" s="4" t="n">
-        <v>41.44</v>
+        <v>4.14</v>
       </c>
       <c r="G7" s="4" t="n">
-        <v>18.22</v>
+        <v>1.82</v>
       </c>
       <c r="H7" s="4" t="n">
-        <v>68.45</v>
+        <v>6.84</v>
       </c>
       <c r="I7" s="4" t="n">
-        <v>28.04</v>
+        <v>2.8</v>
       </c>
       <c r="J7" s="4" t="n">
-        <v>12.49</v>
+        <v>1.25</v>
       </c>
       <c r="K7" s="4" t="n">
-        <v>18.63</v>
+        <v>1.86</v>
       </c>
       <c r="L7" s="4" t="n">
-        <v>20.22</v>
+        <v>2.02</v>
       </c>
       <c r="M7" s="4" t="n">
-        <v>21.29</v>
+        <v>2.13</v>
       </c>
       <c r="N7" s="4" t="n">
-        <v>5.82</v>
+        <v>0.58</v>
       </c>
       <c r="O7" s="4" t="n">
-        <v>18.12</v>
+        <v>1.81</v>
       </c>
       <c r="P7" s="4" t="n">
-        <v>25.82</v>
+        <v>2.58</v>
       </c>
       <c r="Q7" s="4" t="n">
-        <v>15.19</v>
+        <v>1.52</v>
       </c>
       <c r="R7" s="4" t="n">
-        <v>0.65</v>
+        <v>0.06</v>
       </c>
       <c r="S7" s="4" t="n">
-        <v>0.82</v>
+        <v>0.08</v>
       </c>
       <c r="T7" s="4" t="n">
-        <v>268.51</v>
+        <v>26.85</v>
       </c>
       <c r="U7" s="4" t="n">
-        <v>50.63</v>
+        <v>5.06</v>
       </c>
       <c r="V7" s="4" t="n">
-        <v>16.73</v>
+        <v>1.67</v>
       </c>
       <c r="W7" s="4" t="n">
-        <v>34.12</v>
+        <v>3.41</v>
       </c>
       <c r="X7" s="4" t="n">
-        <v>18.04</v>
+        <v>1.8</v>
       </c>
       <c r="Y7" s="4" t="n">
-        <v>2.52</v>
+        <v>0.25</v>
       </c>
       <c r="Z7" s="4" t="n">
-        <v>33.57</v>
+        <v>3.36</v>
       </c>
       <c r="AA7" s="4" t="n">
-        <v>14.77</v>
+        <v>1.48</v>
       </c>
       <c r="AB7" s="4" t="n">
-        <v>13.06</v>
+        <v>1.31</v>
       </c>
       <c r="AC7" s="4" t="n">
-        <v>15.36</v>
+        <v>1.54</v>
       </c>
       <c r="AD7" s="4" t="n">
-        <v>21.21</v>
+        <v>2.12</v>
       </c>
       <c r="AE7" s="4" t="n">
-        <v>0.36</v>
+        <v>0.04</v>
       </c>
       <c r="AF7" s="4" t="n">
-        <v>62.05</v>
+        <v>6.21</v>
       </c>
       <c r="AG7" s="4" t="n">
-        <v>9.449999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AH7" s="4" t="n">
-        <v>20.91</v>
+        <v>2.09</v>
       </c>
     </row>
     <row r="8">
@@ -1279,103 +1279,103 @@
         <v>41508.38194444445</v>
       </c>
       <c r="B8" s="4" t="n">
-        <v>10.86</v>
+        <v>1.09</v>
       </c>
       <c r="C8" s="4" t="n">
-        <v>7.97</v>
+        <v>0.8</v>
       </c>
       <c r="D8" s="4" t="n">
-        <v>0.67</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="E8" s="4" t="n">
-        <v>23.47</v>
+        <v>2.35</v>
       </c>
       <c r="F8" s="4" t="n">
-        <v>19.35</v>
+        <v>1.93</v>
       </c>
       <c r="G8" s="4" t="n">
-        <v>8.539999999999999</v>
+        <v>0.85</v>
       </c>
       <c r="H8" s="4" t="n">
-        <v>36.83</v>
+        <v>3.68</v>
       </c>
       <c r="I8" s="4" t="n">
-        <v>13.15</v>
+        <v>1.31</v>
       </c>
       <c r="J8" s="4" t="n">
-        <v>5.84</v>
+        <v>0.58</v>
       </c>
       <c r="K8" s="4" t="n">
-        <v>8.65</v>
+        <v>0.87</v>
       </c>
       <c r="L8" s="4" t="n">
-        <v>9.49</v>
+        <v>0.95</v>
       </c>
       <c r="M8" s="4" t="n">
-        <v>9.949999999999999</v>
+        <v>0.99</v>
       </c>
       <c r="N8" s="4" t="n">
-        <v>2.73</v>
+        <v>0.27</v>
       </c>
       <c r="O8" s="4" t="n">
-        <v>8.5</v>
+        <v>0.85</v>
       </c>
       <c r="P8" s="4" t="n">
-        <v>12.1</v>
+        <v>1.21</v>
       </c>
       <c r="Q8" s="4" t="n">
-        <v>7.2</v>
+        <v>0.72</v>
       </c>
       <c r="R8" s="4" t="n">
-        <v>0.48</v>
+        <v>0.05</v>
       </c>
       <c r="S8" s="4" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="T8" s="4" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="U8" s="4" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="V8" s="4" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="W8" s="4" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="X8" s="4" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="Y8" s="4" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="Z8" s="4" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AA8" s="4" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="AB8" s="4" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="AC8" s="4" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="AD8" s="4" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="AE8" s="4" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="AF8" s="4" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="AG8" s="4" t="n">
         <v>0.44</v>
       </c>
-      <c r="T8" s="4" t="n">
-        <v>122.02</v>
-      </c>
-      <c r="U8" s="4" t="n">
-        <v>23.89</v>
-      </c>
-      <c r="V8" s="4" t="n">
-        <v>7.84</v>
-      </c>
-      <c r="W8" s="4" t="n">
-        <v>16.02</v>
-      </c>
-      <c r="X8" s="4" t="n">
-        <v>8.49</v>
-      </c>
-      <c r="Y8" s="4" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="Z8" s="4" t="n">
-        <v>17.33</v>
-      </c>
-      <c r="AA8" s="4" t="n">
-        <v>6.93</v>
-      </c>
-      <c r="AB8" s="4" t="n">
-        <v>6.17</v>
-      </c>
-      <c r="AC8" s="4" t="n">
-        <v>7.24</v>
-      </c>
-      <c r="AD8" s="4" t="n">
-        <v>9.93</v>
-      </c>
-      <c r="AE8" s="4" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="AF8" s="4" t="n">
-        <v>33.62</v>
-      </c>
-      <c r="AG8" s="4" t="n">
-        <v>4.39</v>
-      </c>
       <c r="AH8" s="4" t="n">
-        <v>9.81</v>
+        <v>0.98</v>
       </c>
     </row>
     <row r="9">
@@ -1383,103 +1383,103 @@
         <v>41508.38888888889</v>
       </c>
       <c r="B9" s="4" t="n">
-        <v>23.06</v>
+        <v>2.31</v>
       </c>
       <c r="C9" s="4" t="n">
-        <v>17.16</v>
+        <v>1.72</v>
       </c>
       <c r="D9" s="4" t="n">
-        <v>1.03</v>
+        <v>0.1</v>
       </c>
       <c r="E9" s="4" t="n">
-        <v>50.04</v>
+        <v>5</v>
       </c>
       <c r="F9" s="4" t="n">
-        <v>41.32</v>
+        <v>4.13</v>
       </c>
       <c r="G9" s="4" t="n">
-        <v>18.15</v>
+        <v>1.81</v>
       </c>
       <c r="H9" s="4" t="n">
-        <v>68.45</v>
+        <v>6.85</v>
       </c>
       <c r="I9" s="4" t="n">
-        <v>27.92</v>
+        <v>2.79</v>
       </c>
       <c r="J9" s="4" t="n">
-        <v>12.47</v>
+        <v>1.25</v>
       </c>
       <c r="K9" s="4" t="n">
-        <v>18.58</v>
+        <v>1.86</v>
       </c>
       <c r="L9" s="4" t="n">
-        <v>20.14</v>
+        <v>2.01</v>
       </c>
       <c r="M9" s="4" t="n">
-        <v>21.23</v>
+        <v>2.12</v>
       </c>
       <c r="N9" s="4" t="n">
-        <v>5.8</v>
+        <v>0.58</v>
       </c>
       <c r="O9" s="4" t="n">
-        <v>18.05</v>
+        <v>1.8</v>
       </c>
       <c r="P9" s="4" t="n">
-        <v>25.74</v>
+        <v>2.57</v>
       </c>
       <c r="Q9" s="4" t="n">
-        <v>15.09</v>
+        <v>1.51</v>
       </c>
       <c r="R9" s="4" t="n">
-        <v>0.53</v>
+        <v>0.05</v>
       </c>
       <c r="S9" s="4" t="n">
-        <v>0.78</v>
+        <v>0.08</v>
       </c>
       <c r="T9" s="4" t="n">
-        <v>267.36</v>
+        <v>26.74</v>
       </c>
       <c r="U9" s="4" t="n">
-        <v>50.42</v>
+        <v>5.04</v>
       </c>
       <c r="V9" s="4" t="n">
-        <v>16.66</v>
+        <v>1.67</v>
       </c>
       <c r="W9" s="4" t="n">
-        <v>34.02</v>
+        <v>3.4</v>
       </c>
       <c r="X9" s="4" t="n">
-        <v>17.97</v>
+        <v>1.8</v>
       </c>
       <c r="Y9" s="4" t="n">
-        <v>2.48</v>
+        <v>0.25</v>
       </c>
       <c r="Z9" s="4" t="n">
-        <v>33.51</v>
+        <v>3.35</v>
       </c>
       <c r="AA9" s="4" t="n">
-        <v>14.71</v>
+        <v>1.47</v>
       </c>
       <c r="AB9" s="4" t="n">
-        <v>12.98</v>
+        <v>1.3</v>
       </c>
       <c r="AC9" s="4" t="n">
-        <v>15.27</v>
+        <v>1.53</v>
       </c>
       <c r="AD9" s="4" t="n">
-        <v>21.14</v>
+        <v>2.11</v>
       </c>
       <c r="AE9" s="4" t="n">
-        <v>0.26</v>
+        <v>0.03</v>
       </c>
       <c r="AF9" s="4" t="n">
-        <v>62.03</v>
+        <v>6.2</v>
       </c>
       <c r="AG9" s="4" t="n">
-        <v>9.43</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AH9" s="4" t="n">
-        <v>20.83</v>
+        <v>2.08</v>
       </c>
     </row>
     <row r="10">
@@ -1487,103 +1487,103 @@
         <v>41508.39583333334</v>
       </c>
       <c r="B10" s="4" t="n">
-        <v>21.14</v>
+        <v>2.11</v>
       </c>
       <c r="C10" s="4" t="n">
-        <v>15.73</v>
+        <v>1.57</v>
       </c>
       <c r="D10" s="4" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.09</v>
       </c>
       <c r="E10" s="4" t="n">
-        <v>45.87</v>
+        <v>4.59</v>
       </c>
       <c r="F10" s="4" t="n">
-        <v>37.87</v>
+        <v>3.79</v>
       </c>
       <c r="G10" s="4" t="n">
-        <v>16.64</v>
+        <v>1.66</v>
       </c>
       <c r="H10" s="4" t="n">
-        <v>65.48999999999999</v>
+        <v>6.55</v>
       </c>
       <c r="I10" s="4" t="n">
-        <v>25.6</v>
+        <v>2.56</v>
       </c>
       <c r="J10" s="4" t="n">
-        <v>11.44</v>
+        <v>1.14</v>
       </c>
       <c r="K10" s="4" t="n">
-        <v>17.04</v>
+        <v>1.7</v>
       </c>
       <c r="L10" s="4" t="n">
-        <v>18.46</v>
+        <v>1.85</v>
       </c>
       <c r="M10" s="4" t="n">
-        <v>19.47</v>
+        <v>1.95</v>
       </c>
       <c r="N10" s="4" t="n">
-        <v>5.31</v>
+        <v>0.53</v>
       </c>
       <c r="O10" s="4" t="n">
-        <v>16.54</v>
+        <v>1.65</v>
       </c>
       <c r="P10" s="4" t="n">
-        <v>23.61</v>
+        <v>2.36</v>
       </c>
       <c r="Q10" s="4" t="n">
-        <v>13.83</v>
+        <v>1.38</v>
       </c>
       <c r="R10" s="4" t="n">
-        <v>0.48</v>
+        <v>0.05</v>
       </c>
       <c r="S10" s="4" t="n">
-        <v>0.71</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="T10" s="4" t="n">
-        <v>244.48</v>
+        <v>24.45</v>
       </c>
       <c r="U10" s="4" t="n">
-        <v>46.29</v>
+        <v>4.63</v>
       </c>
       <c r="V10" s="4" t="n">
-        <v>15.27</v>
+        <v>1.53</v>
       </c>
       <c r="W10" s="4" t="n">
-        <v>31.23</v>
+        <v>3.12</v>
       </c>
       <c r="X10" s="4" t="n">
-        <v>16.48</v>
+        <v>1.65</v>
       </c>
       <c r="Y10" s="4" t="n">
-        <v>2.27</v>
+        <v>0.23</v>
       </c>
       <c r="Z10" s="4" t="n">
-        <v>31.66</v>
+        <v>3.17</v>
       </c>
       <c r="AA10" s="4" t="n">
-        <v>13.49</v>
+        <v>1.35</v>
       </c>
       <c r="AB10" s="4" t="n">
-        <v>11.9</v>
+        <v>1.19</v>
       </c>
       <c r="AC10" s="4" t="n">
-        <v>14</v>
+        <v>1.4</v>
       </c>
       <c r="AD10" s="4" t="n">
-        <v>19.38</v>
+        <v>1.94</v>
       </c>
       <c r="AE10" s="4" t="n">
-        <v>0.23</v>
+        <v>0.02</v>
       </c>
       <c r="AF10" s="4" t="n">
-        <v>59.48</v>
+        <v>5.95</v>
       </c>
       <c r="AG10" s="4" t="n">
-        <v>8.65</v>
+        <v>0.86</v>
       </c>
       <c r="AH10" s="4" t="n">
-        <v>19.09</v>
+        <v>1.91</v>
       </c>
     </row>
     <row r="11">

--- a/DATA_goal/Junction_Flooding_76.xlsx
+++ b/DATA_goal/Junction_Flooding_76.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH11"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -457,7 +457,7 @@
     <col width="6" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
     <col width="6" customWidth="1" min="15" max="15"/>
-    <col width="6" customWidth="1" min="16" max="16"/>
+    <col width="7" customWidth="1" min="16" max="16"/>
     <col width="6" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
@@ -652,1042 +652,522 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>41508.34027777778</v>
+        <v>44781.84027777778</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>2.12</v>
+        <v>0.54</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>1.45</v>
+        <v>0.52</v>
       </c>
       <c r="D2" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" s="4" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="F2" s="4" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="G2" s="4" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H2" s="4" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="I2" s="4" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="J2" s="4" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="K2" s="4" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="L2" s="4" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="M2" s="4" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="N2" s="4" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="O2" s="4" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="P2" s="4" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="Q2" s="4" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="R2" s="4" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="S2" s="4" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="T2" s="4" t="n">
+        <v>7.22</v>
+      </c>
+      <c r="U2" s="4" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="V2" s="4" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="W2" s="4" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="X2" s="4" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="Y2" s="4" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="Z2" s="4" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="AA2" s="4" t="n">
         <v>0.41</v>
       </c>
-      <c r="E2" s="4" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="F2" s="4" t="n">
-        <v>3.68</v>
-      </c>
-      <c r="G2" s="4" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="H2" s="4" t="n">
-        <v>5.45</v>
-      </c>
-      <c r="I2" s="4" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="J2" s="4" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="K2" s="4" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="L2" s="4" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="M2" s="4" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="N2" s="4" t="n">
-        <v>0.53</v>
-      </c>
-      <c r="O2" s="4" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="P2" s="4" t="n">
-        <v>2.33</v>
-      </c>
-      <c r="Q2" s="4" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="R2" s="4" t="n">
-        <v>0.37</v>
-      </c>
-      <c r="S2" s="4" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="T2" s="4" t="n">
-        <v>24.56</v>
-      </c>
-      <c r="U2" s="4" t="n">
-        <v>4.62</v>
-      </c>
-      <c r="V2" s="4" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="W2" s="4" t="n">
-        <v>3.06</v>
-      </c>
-      <c r="X2" s="4" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="Y2" s="4" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="Z2" s="4" t="n">
-        <v>2.71</v>
-      </c>
-      <c r="AA2" s="4" t="n">
-        <v>1.35</v>
-      </c>
       <c r="AB2" s="4" t="n">
-        <v>1.22</v>
+        <v>0.51</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>1.43</v>
+        <v>0.63</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>1.83</v>
+        <v>0.67</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.36</v>
+        <v>0.08</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>4.81</v>
+        <v>1.11</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.85</v>
+        <v>0.38</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>1.92</v>
+        <v>0.52</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>41508.34722222222</v>
+        <v>44781.84722222222</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>1.54</v>
+        <v>1.41</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>1.09</v>
+        <v>1.11</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.18</v>
+        <v>0.03</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>3.28</v>
+        <v>3.17</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>2.71</v>
+        <v>2.62</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>1.21</v>
+        <v>1.15</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>4.78</v>
+        <v>4.12</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>1.86</v>
+        <v>1.8</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>1.21</v>
+        <v>1.26</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>1.32</v>
+        <v>1.34</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0.39</v>
+        <v>0.37</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>1.03</v>
+        <v>0.97</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.16</v>
+        <v>0.02</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.1</v>
+        <v>0.06</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>17.58</v>
+        <v>16.98</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>3.37</v>
+        <v>3.25</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>1.11</v>
+        <v>1.06</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>2.23</v>
+        <v>2.14</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>1.19</v>
+        <v>1.22</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.18</v>
+        <v>0.15</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>2.29</v>
+        <v>2.09</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>0.98</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>0.89</v>
+        <v>0.91</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>1.04</v>
+        <v>1.08</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>1.38</v>
+        <v>1.4</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.13</v>
+        <v>0.04</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>4.34</v>
+        <v>3.72</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.61</v>
+        <v>0.65</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>1.39</v>
+        <v>1.31</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>41508.35416666666</v>
+        <v>44781.85416666666</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>1.23</v>
+        <v>1.82</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>0.88</v>
+        <v>1.4</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.12</v>
+        <v>0.05</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>2.64</v>
+        <v>4.03</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>2.17</v>
+        <v>3.32</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>0.97</v>
+        <v>1.46</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>3.89</v>
+        <v>5.63</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>1.49</v>
+        <v>2.27</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>0.65</v>
+        <v>1.04</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>0.97</v>
+        <v>1.56</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>1.07</v>
+        <v>1.66</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>1.11</v>
+        <v>1.72</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.31</v>
+        <v>0.47</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>0.96</v>
+        <v>1.44</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>1.36</v>
+        <v>2.08</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>0.83</v>
+        <v>1.22</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.1</v>
+        <v>0.02</v>
       </c>
       <c r="S4" s="4" t="n">
         <v>0.07000000000000001</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>13.92</v>
+        <v>21.57</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>2.7</v>
+        <v>4.1</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>0.89</v>
+        <v>1.34</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>1.79</v>
+        <v>2.74</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>0.96</v>
+        <v>1.5</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.15</v>
+        <v>0.19</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>1.84</v>
+        <v>2.77</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>0.78</v>
+        <v>1.19</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>0.71</v>
+        <v>1.1</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>0.83</v>
+        <v>1.3</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>1.11</v>
+        <v>1.75</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.08</v>
+        <v>0.03</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>3.53</v>
+        <v>5.11</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.49</v>
+        <v>0.8</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>1.11</v>
+        <v>1.67</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>41508.36111111111</v>
+        <v>44781.86111111111</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>1.31</v>
+        <v>2.17</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>0.95</v>
+        <v>1.65</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.1</v>
+        <v>0.06</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>2.81</v>
+        <v>4.77</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>2.32</v>
+        <v>3.94</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>1.03</v>
+        <v>1.73</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>4.02</v>
+        <v>6.74</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>1.58</v>
+        <v>2.68</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>0.6899999999999999</v>
+        <v>1.22</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>1.04</v>
+        <v>1.82</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>1.14</v>
+        <v>1.95</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>1.19</v>
+        <v>2.03</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.33</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>1.02</v>
+        <v>1.71</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>1.45</v>
+        <v>2.47</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>0.87</v>
+        <v>1.43</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.08</v>
+        <v>0.02</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.06</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>14.83</v>
+        <v>25.58</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>2.86</v>
+        <v>4.84</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>0.9399999999999999</v>
+        <v>1.59</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>1.91</v>
+        <v>3.25</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>1.02</v>
+        <v>1.75</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.15</v>
+        <v>0.23</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>1.92</v>
+        <v>3.29</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>0.83</v>
+        <v>1.41</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>0.75</v>
+        <v>1.28</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>0.88</v>
+        <v>1.5</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>1.19</v>
+        <v>2.05</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.06</v>
+        <v>0.02</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>3.63</v>
+        <v>6.12</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.53</v>
+        <v>0.93</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>1.18</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="3" t="n">
-        <v>41508.36805555555</v>
+        <v>44781.86804398148</v>
       </c>
       <c r="B6" s="4" t="n">
-        <v>1.1</v>
+        <v>9.74</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>0.8</v>
+        <v>7.51</v>
       </c>
       <c r="D6" s="4" t="n">
-        <v>0.08</v>
+        <v>0.22</v>
       </c>
       <c r="E6" s="4" t="n">
-        <v>2.38</v>
+        <v>21.68</v>
       </c>
       <c r="F6" s="4" t="n">
-        <v>1.96</v>
+        <v>17.83</v>
       </c>
       <c r="G6" s="4" t="n">
-        <v>0.87</v>
+        <v>7.84</v>
       </c>
       <c r="H6" s="4" t="n">
-        <v>3.48</v>
+        <v>34.78</v>
       </c>
       <c r="I6" s="4" t="n">
-        <v>1.34</v>
+        <v>12.27</v>
       </c>
       <c r="J6" s="4" t="n">
-        <v>0.59</v>
+        <v>5.63</v>
       </c>
       <c r="K6" s="4" t="n">
-        <v>0.88</v>
+        <v>8.44</v>
       </c>
       <c r="L6" s="4" t="n">
-        <v>0.96</v>
+        <v>8.99</v>
       </c>
       <c r="M6" s="4" t="n">
-        <v>1.01</v>
+        <v>9.24</v>
       </c>
       <c r="N6" s="4" t="n">
-        <v>0.28</v>
+        <v>2.54</v>
       </c>
       <c r="O6" s="4" t="n">
-        <v>0.86</v>
+        <v>7.7</v>
       </c>
       <c r="P6" s="4" t="n">
-        <v>1.23</v>
+        <v>11.27</v>
       </c>
       <c r="Q6" s="4" t="n">
-        <v>0.74</v>
+        <v>6.55</v>
       </c>
       <c r="R6" s="4" t="n">
-        <v>0.06</v>
+        <v>0.14</v>
       </c>
       <c r="S6" s="4" t="n">
-        <v>0.05</v>
+        <v>0.36</v>
       </c>
       <c r="T6" s="4" t="n">
-        <v>12.43</v>
+        <v>112.74</v>
       </c>
       <c r="U6" s="4" t="n">
-        <v>2.42</v>
+        <v>22.22</v>
       </c>
       <c r="V6" s="4" t="n">
-        <v>0.8</v>
+        <v>7.19</v>
       </c>
       <c r="W6" s="4" t="n">
-        <v>1.62</v>
+        <v>14.81</v>
       </c>
       <c r="X6" s="4" t="n">
-        <v>0.86</v>
+        <v>8.119999999999999</v>
       </c>
       <c r="Y6" s="4" t="n">
-        <v>0.13</v>
+        <v>1.04</v>
       </c>
       <c r="Z6" s="4" t="n">
-        <v>1.66</v>
+        <v>16.44</v>
       </c>
       <c r="AA6" s="4" t="n">
-        <v>0.71</v>
+        <v>6.42</v>
       </c>
       <c r="AB6" s="4" t="n">
-        <v>0.63</v>
+        <v>6</v>
       </c>
       <c r="AC6" s="4" t="n">
-        <v>0.74</v>
+        <v>7.03</v>
       </c>
       <c r="AD6" s="4" t="n">
-        <v>1.01</v>
+        <v>9.460000000000001</v>
       </c>
       <c r="AE6" s="4" t="n">
-        <v>0.04</v>
+        <v>0.16</v>
       </c>
       <c r="AF6" s="4" t="n">
-        <v>3.16</v>
+        <v>31.75</v>
       </c>
       <c r="AG6" s="4" t="n">
-        <v>0.44</v>
+        <v>4.3</v>
       </c>
       <c r="AH6" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="3" t="n">
-        <v>41508.375</v>
-      </c>
-      <c r="B7" s="4" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="C7" s="4" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="D7" s="4" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="E7" s="4" t="n">
-        <v>5.02</v>
-      </c>
-      <c r="F7" s="4" t="n">
-        <v>4.14</v>
-      </c>
-      <c r="G7" s="4" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="H7" s="4" t="n">
-        <v>6.84</v>
-      </c>
-      <c r="I7" s="4" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="J7" s="4" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="K7" s="4" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="L7" s="4" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="M7" s="4" t="n">
-        <v>2.13</v>
-      </c>
-      <c r="N7" s="4" t="n">
-        <v>0.58</v>
-      </c>
-      <c r="O7" s="4" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="P7" s="4" t="n">
-        <v>2.58</v>
-      </c>
-      <c r="Q7" s="4" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="R7" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="S7" s="4" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="T7" s="4" t="n">
-        <v>26.85</v>
-      </c>
-      <c r="U7" s="4" t="n">
-        <v>5.06</v>
-      </c>
-      <c r="V7" s="4" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="W7" s="4" t="n">
-        <v>3.41</v>
-      </c>
-      <c r="X7" s="4" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="Y7" s="4" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="Z7" s="4" t="n">
-        <v>3.36</v>
-      </c>
-      <c r="AA7" s="4" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="AB7" s="4" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="AC7" s="4" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="AD7" s="4" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="AE7" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="AF7" s="4" t="n">
-        <v>6.21</v>
-      </c>
-      <c r="AG7" s="4" t="n">
-        <v>0.95</v>
-      </c>
-      <c r="AH7" s="4" t="n">
-        <v>2.09</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="3" t="n">
-        <v>41508.38194444445</v>
-      </c>
-      <c r="B8" s="4" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="C8" s="4" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="D8" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="E8" s="4" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="F8" s="4" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="G8" s="4" t="n">
-        <v>0.85</v>
-      </c>
-      <c r="H8" s="4" t="n">
-        <v>3.68</v>
-      </c>
-      <c r="I8" s="4" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="J8" s="4" t="n">
-        <v>0.58</v>
-      </c>
-      <c r="K8" s="4" t="n">
-        <v>0.87</v>
-      </c>
-      <c r="L8" s="4" t="n">
-        <v>0.95</v>
-      </c>
-      <c r="M8" s="4" t="n">
-        <v>0.99</v>
-      </c>
-      <c r="N8" s="4" t="n">
-        <v>0.27</v>
-      </c>
-      <c r="O8" s="4" t="n">
-        <v>0.85</v>
-      </c>
-      <c r="P8" s="4" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="Q8" s="4" t="n">
-        <v>0.72</v>
-      </c>
-      <c r="R8" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="S8" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="T8" s="4" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="U8" s="4" t="n">
-        <v>2.39</v>
-      </c>
-      <c r="V8" s="4" t="n">
-        <v>0.78</v>
-      </c>
-      <c r="W8" s="4" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="X8" s="4" t="n">
-        <v>0.85</v>
-      </c>
-      <c r="Y8" s="4" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="Z8" s="4" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="AA8" s="4" t="n">
-        <v>0.6899999999999999</v>
-      </c>
-      <c r="AB8" s="4" t="n">
-        <v>0.62</v>
-      </c>
-      <c r="AC8" s="4" t="n">
-        <v>0.72</v>
-      </c>
-      <c r="AD8" s="4" t="n">
-        <v>0.99</v>
-      </c>
-      <c r="AE8" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="AF8" s="4" t="n">
-        <v>3.36</v>
-      </c>
-      <c r="AG8" s="4" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="AH8" s="4" t="n">
-        <v>0.98</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="3" t="n">
-        <v>41508.38888888889</v>
-      </c>
-      <c r="B9" s="4" t="n">
-        <v>2.31</v>
-      </c>
-      <c r="C9" s="4" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="D9" s="4" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="E9" s="4" t="n">
-        <v>5</v>
-      </c>
-      <c r="F9" s="4" t="n">
-        <v>4.13</v>
-      </c>
-      <c r="G9" s="4" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="H9" s="4" t="n">
-        <v>6.85</v>
-      </c>
-      <c r="I9" s="4" t="n">
-        <v>2.79</v>
-      </c>
-      <c r="J9" s="4" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="K9" s="4" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="L9" s="4" t="n">
-        <v>2.01</v>
-      </c>
-      <c r="M9" s="4" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="N9" s="4" t="n">
-        <v>0.58</v>
-      </c>
-      <c r="O9" s="4" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="P9" s="4" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="Q9" s="4" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="R9" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="S9" s="4" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="T9" s="4" t="n">
-        <v>26.74</v>
-      </c>
-      <c r="U9" s="4" t="n">
-        <v>5.04</v>
-      </c>
-      <c r="V9" s="4" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="W9" s="4" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="X9" s="4" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="Y9" s="4" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="Z9" s="4" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="AA9" s="4" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="AB9" s="4" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="AC9" s="4" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="AD9" s="4" t="n">
-        <v>2.11</v>
-      </c>
-      <c r="AE9" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="AF9" s="4" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="AG9" s="4" t="n">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="AH9" s="4" t="n">
-        <v>2.08</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="3" t="n">
-        <v>41508.39583333334</v>
-      </c>
-      <c r="B10" s="4" t="n">
-        <v>2.11</v>
-      </c>
-      <c r="C10" s="4" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="D10" s="4" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="E10" s="4" t="n">
-        <v>4.59</v>
-      </c>
-      <c r="F10" s="4" t="n">
-        <v>3.79</v>
-      </c>
-      <c r="G10" s="4" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="H10" s="4" t="n">
-        <v>6.55</v>
-      </c>
-      <c r="I10" s="4" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="J10" s="4" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="K10" s="4" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="L10" s="4" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="M10" s="4" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="N10" s="4" t="n">
-        <v>0.53</v>
-      </c>
-      <c r="O10" s="4" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="P10" s="4" t="n">
-        <v>2.36</v>
-      </c>
-      <c r="Q10" s="4" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="R10" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="S10" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="T10" s="4" t="n">
-        <v>24.45</v>
-      </c>
-      <c r="U10" s="4" t="n">
-        <v>4.63</v>
-      </c>
-      <c r="V10" s="4" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="W10" s="4" t="n">
-        <v>3.12</v>
-      </c>
-      <c r="X10" s="4" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="Y10" s="4" t="n">
-        <v>0.23</v>
-      </c>
-      <c r="Z10" s="4" t="n">
-        <v>3.17</v>
-      </c>
-      <c r="AA10" s="4" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="AB10" s="4" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="AC10" s="4" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="AD10" s="4" t="n">
-        <v>1.94</v>
-      </c>
-      <c r="AE10" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="AF10" s="4" t="n">
-        <v>5.95</v>
-      </c>
-      <c r="AG10" s="4" t="n">
-        <v>0.86</v>
-      </c>
-      <c r="AH10" s="4" t="n">
-        <v>1.91</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="3" t="n">
-        <v>41508.4027662037</v>
-      </c>
-      <c r="B11" s="4" t="n">
-        <v>9.130000000000001</v>
-      </c>
-      <c r="C11" s="4" t="n">
-        <v>6.72</v>
-      </c>
-      <c r="D11" s="4" t="n">
-        <v>0.51</v>
-      </c>
-      <c r="E11" s="4" t="n">
-        <v>19.76</v>
-      </c>
-      <c r="F11" s="4" t="n">
-        <v>16.28</v>
-      </c>
-      <c r="G11" s="4" t="n">
-        <v>7.18</v>
-      </c>
-      <c r="H11" s="4" t="n">
-        <v>32.04</v>
-      </c>
-      <c r="I11" s="4" t="n">
-        <v>11.05</v>
-      </c>
-      <c r="J11" s="4" t="n">
-        <v>4.93</v>
-      </c>
-      <c r="K11" s="4" t="n">
-        <v>7.29</v>
-      </c>
-      <c r="L11" s="4" t="n">
-        <v>7.98</v>
-      </c>
-      <c r="M11" s="4" t="n">
-        <v>8.380000000000001</v>
-      </c>
-      <c r="N11" s="4" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="O11" s="4" t="n">
-        <v>7.14</v>
-      </c>
-      <c r="P11" s="4" t="n">
-        <v>10.2</v>
-      </c>
-      <c r="Q11" s="4" t="n">
-        <v>6.03</v>
-      </c>
-      <c r="R11" s="4" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="S11" s="4" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="T11" s="4" t="n">
-        <v>101.42</v>
-      </c>
-      <c r="U11" s="4" t="n">
-        <v>20.13</v>
-      </c>
-      <c r="V11" s="4" t="n">
-        <v>6.59</v>
-      </c>
-      <c r="W11" s="4" t="n">
-        <v>13.53</v>
-      </c>
-      <c r="X11" s="4" t="n">
-        <v>7.15</v>
-      </c>
-      <c r="Y11" s="4" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="Z11" s="4" t="n">
-        <v>14.96</v>
-      </c>
-      <c r="AA11" s="4" t="n">
-        <v>5.82</v>
-      </c>
-      <c r="AB11" s="4" t="n">
-        <v>5.17</v>
-      </c>
-      <c r="AC11" s="4" t="n">
-        <v>6.08</v>
-      </c>
-      <c r="AD11" s="4" t="n">
-        <v>8.359999999999999</v>
-      </c>
-      <c r="AE11" s="4" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="AF11" s="4" t="n">
-        <v>29.29</v>
-      </c>
-      <c r="AG11" s="4" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="AH11" s="4" t="n">
-        <v>8.24</v>
+        <v>8.970000000000001</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_76.xlsx
+++ b/DATA_goal/Junction_Flooding_76.xlsx
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="6" customWidth="1" min="2" max="2"/>
-    <col width="6" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="2" max="2"/>
+    <col width="7" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
     <col width="7" customWidth="1" min="5" max="5"/>
     <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="6" customWidth="1" min="7" max="7"/>
+    <col width="7" customWidth="1" min="7" max="7"/>
     <col width="7" customWidth="1" min="8" max="8"/>
     <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="6" customWidth="1" min="10" max="10"/>
-    <col width="6" customWidth="1" min="11" max="11"/>
-    <col width="6" customWidth="1" min="12" max="12"/>
-    <col width="6" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="10" max="10"/>
+    <col width="7" customWidth="1" min="11" max="11"/>
+    <col width="7" customWidth="1" min="12" max="12"/>
+    <col width="7" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="6" customWidth="1" min="15" max="15"/>
+    <col width="7" customWidth="1" min="15" max="15"/>
     <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="6" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
     <col width="8" customWidth="1" min="20" max="20"/>
     <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="6" customWidth="1" min="22" max="22"/>
+    <col width="7" customWidth="1" min="22" max="22"/>
     <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="6" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
     <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="6" customWidth="1" min="27" max="27"/>
-    <col width="6" customWidth="1" min="28" max="28"/>
-    <col width="6" customWidth="1" min="29" max="29"/>
-    <col width="6" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="27" max="27"/>
+    <col width="7" customWidth="1" min="28" max="28"/>
+    <col width="7" customWidth="1" min="29" max="29"/>
+    <col width="7" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
     <col width="7" customWidth="1" min="32" max="32"/>
     <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="6" customWidth="1" min="34" max="34"/>
+    <col width="7" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -655,103 +655,103 @@
         <v>44781.84027777778</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>0.54</v>
+        <v>5.38</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>0.52</v>
+        <v>5.21</v>
       </c>
       <c r="D2" s="4" t="n">
         <v>0</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>1.32</v>
+        <v>13.17</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>1.12</v>
+        <v>11.19</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>0.5</v>
+        <v>5.04</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>1.34</v>
+        <v>13.38</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>0.8</v>
+        <v>7.97</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>0.38</v>
+        <v>3.77</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>0.62</v>
+        <v>6.17</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>0.64</v>
+        <v>6.37</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>0.62</v>
+        <v>6.16</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.17</v>
+        <v>1.68</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>0.48</v>
+        <v>4.81</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>0.68</v>
+        <v>6.85</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>0.44</v>
+        <v>4.45</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.03</v>
+        <v>0.3</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.04</v>
+        <v>0.42</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>7.22</v>
+        <v>72.19</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>1.43</v>
+        <v>14.31</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>0.46</v>
+        <v>4.64</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>0.85</v>
+        <v>8.51</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>0.63</v>
+        <v>6.25</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>0.7</v>
+        <v>6.98</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>0.41</v>
+        <v>4.07</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>0.51</v>
+        <v>5.07</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>0.63</v>
+        <v>6.32</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>0.67</v>
+        <v>6.73</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.08</v>
+        <v>0.77</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>1.11</v>
+        <v>11.06</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.38</v>
+        <v>3.76</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>0.52</v>
+        <v>5.19</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>44781.84722222222</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>1.41</v>
+        <v>14.13</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>1.11</v>
+        <v>11.14</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.03</v>
+        <v>0.27</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>3.17</v>
+        <v>31.71</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>2.62</v>
+        <v>26.17</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>1.15</v>
+        <v>11.53</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>4.12</v>
+        <v>41.16</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>1.8</v>
+        <v>18.04</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>0.83</v>
+        <v>8.31</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>1.26</v>
+        <v>12.57</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>1.34</v>
+        <v>13.35</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>1.37</v>
+        <v>13.66</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0.37</v>
+        <v>3.74</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>1.13</v>
+        <v>11.31</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>1.64</v>
+        <v>16.42</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>0.97</v>
+        <v>9.69</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.02</v>
+        <v>0.23</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.06</v>
+        <v>0.58</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>16.98</v>
+        <v>169.78</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>3.25</v>
+        <v>32.5</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>1.06</v>
+        <v>10.59</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>2.14</v>
+        <v>21.42</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>1.22</v>
+        <v>12.17</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.15</v>
+        <v>1.53</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>2.09</v>
+        <v>20.87</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>0.9399999999999999</v>
+        <v>9.43</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>0.91</v>
+        <v>9.1</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>1.08</v>
+        <v>10.75</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>1.4</v>
+        <v>14.05</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.04</v>
+        <v>0.42</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>3.72</v>
+        <v>37.23</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.65</v>
+        <v>6.55</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>1.31</v>
+        <v>13.07</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>44781.85416666666</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>1.82</v>
+        <v>18.2</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>1.4</v>
+        <v>14</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.05</v>
+        <v>0.45</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>4.03</v>
+        <v>40.3</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>3.32</v>
+        <v>33.23</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>1.46</v>
+        <v>14.6</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>5.63</v>
+        <v>56.3</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>2.27</v>
+        <v>22.73</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>1.04</v>
+        <v>10.37</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>1.56</v>
+        <v>15.58</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>1.66</v>
+        <v>16.63</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>1.72</v>
+        <v>17.21</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.47</v>
+        <v>4.71</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>1.44</v>
+        <v>14.39</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>2.08</v>
+        <v>20.85</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>1.22</v>
+        <v>12.17</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.02</v>
+        <v>0.23</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.66</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>21.57</v>
+        <v>215.66</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>4.1</v>
+        <v>41</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>1.34</v>
+        <v>13.4</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>2.74</v>
+        <v>27.36</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>1.5</v>
+        <v>14.99</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.19</v>
+        <v>1.92</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>2.77</v>
+        <v>27.69</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>1.19</v>
+        <v>11.92</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>1.1</v>
+        <v>11.03</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>1.3</v>
+        <v>12.98</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>1.75</v>
+        <v>17.48</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.03</v>
+        <v>0.28</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>5.11</v>
+        <v>51.15</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.8</v>
+        <v>7.98</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>1.67</v>
+        <v>16.68</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>44781.86111111111</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>2.17</v>
+        <v>21.68</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>1.65</v>
+        <v>16.52</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.06</v>
+        <v>0.6</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>4.77</v>
+        <v>47.74</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>3.94</v>
+        <v>39.37</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>1.73</v>
+        <v>17.27</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>6.74</v>
+        <v>67.41</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>2.68</v>
+        <v>26.81</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>1.22</v>
+        <v>12.17</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>1.82</v>
+        <v>18.24</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>1.95</v>
+        <v>19.51</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>2.03</v>
+        <v>20.33</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>5.56</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>1.71</v>
+        <v>17.07</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>2.47</v>
+        <v>24.67</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>1.43</v>
+        <v>14.34</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.02</v>
+        <v>0.25</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.73</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>25.58</v>
+        <v>255.77</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>4.84</v>
+        <v>48.37</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>1.59</v>
+        <v>15.85</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>3.25</v>
+        <v>32.46</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>1.75</v>
+        <v>17.51</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.23</v>
+        <v>2.27</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>3.29</v>
+        <v>32.9</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>1.41</v>
+        <v>14.08</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>1.28</v>
+        <v>12.79</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>1.5</v>
+        <v>15.04</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>2.05</v>
+        <v>20.52</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.02</v>
+        <v>0.21</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>6.12</v>
+        <v>61.19</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.93</v>
+        <v>9.289999999999999</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>1.98</v>
+        <v>19.78</v>
       </c>
     </row>
     <row r="6">

--- a/DATA_goal/Junction_Flooding_76.xlsx
+++ b/DATA_goal/Junction_Flooding_76.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="7" customWidth="1" min="3" max="3"/>
-    <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
-    <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="7" customWidth="1" min="10" max="10"/>
-    <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
-    <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="7" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="7" customWidth="1" min="17" max="17"/>
-    <col width="6" customWidth="1" min="18" max="18"/>
-    <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="8" customWidth="1" min="20" max="20"/>
-    <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="7" customWidth="1" min="22" max="22"/>
-    <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="7" customWidth="1" min="24" max="24"/>
-    <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="7" customWidth="1" min="27" max="27"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="4" max="4"/>
+    <col width="8" customWidth="1" min="5" max="5"/>
+    <col width="8" customWidth="1" min="6" max="6"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="8" max="8"/>
+    <col width="8" customWidth="1" min="9" max="9"/>
+    <col width="8" customWidth="1" min="10" max="10"/>
+    <col width="8" customWidth="1" min="11" max="11"/>
+    <col width="8" customWidth="1" min="12" max="12"/>
+    <col width="8" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="14" max="14"/>
+    <col width="8" customWidth="1" min="15" max="15"/>
+    <col width="8" customWidth="1" min="16" max="16"/>
+    <col width="8" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="18" max="18"/>
+    <col width="7" customWidth="1" min="19" max="19"/>
+    <col width="9" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="21" max="21"/>
+    <col width="8" customWidth="1" min="22" max="22"/>
+    <col width="8" customWidth="1" min="23" max="23"/>
+    <col width="8" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="25" max="25"/>
+    <col width="8" customWidth="1" min="26" max="26"/>
+    <col width="8" customWidth="1" min="27" max="27"/>
     <col width="7" customWidth="1" min="28" max="28"/>
-    <col width="7" customWidth="1" min="29" max="29"/>
-    <col width="7" customWidth="1" min="30" max="30"/>
-    <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="7" customWidth="1" min="32" max="32"/>
-    <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="7" customWidth="1" min="34" max="34"/>
+    <col width="8" customWidth="1" min="29" max="29"/>
+    <col width="8" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="31" max="31"/>
+    <col width="8" customWidth="1" min="32" max="32"/>
+    <col width="7" customWidth="1" min="33" max="33"/>
+    <col width="8" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -655,70 +655,70 @@
         <v>44781.84027777778</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>5.38</v>
+        <v>5.378</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>5.21</v>
+        <v>5.209</v>
       </c>
       <c r="D2" s="4" t="n">
         <v>0</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>13.17</v>
+        <v>13.173</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>11.19</v>
+        <v>11.188</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>5.04</v>
+        <v>5.041</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>13.38</v>
+        <v>13.381</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>7.97</v>
+        <v>7.973</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>3.77</v>
+        <v>3.774</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>6.17</v>
+        <v>6.167</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>6.37</v>
+        <v>6.371</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>6.16</v>
+        <v>6.162</v>
       </c>
       <c r="N2" s="4" t="n">
         <v>1.68</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>4.81</v>
+        <v>4.805</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>6.85</v>
+        <v>6.849</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>4.45</v>
+        <v>4.447</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.3</v>
+        <v>0.297</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.42</v>
+        <v>0.425</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>72.19</v>
+        <v>72.19199999999999</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>14.31</v>
+        <v>14.308</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>4.64</v>
+        <v>4.642</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>8.51</v>
+        <v>8.505000000000001</v>
       </c>
       <c r="X2" s="4" t="n">
         <v>6.25</v>
@@ -727,31 +727,31 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>6.98</v>
+        <v>6.977</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>4.07</v>
+        <v>4.068</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>5.07</v>
+        <v>5.066</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>6.32</v>
+        <v>6.321</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>6.73</v>
+        <v>6.735</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.77</v>
+        <v>0.773</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>11.06</v>
+        <v>11.064</v>
       </c>
       <c r="AG2" s="4" t="n">
         <v>3.76</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>5.19</v>
+        <v>5.189</v>
       </c>
     </row>
     <row r="3">
@@ -759,28 +759,28 @@
         <v>44781.84722222222</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>14.13</v>
+        <v>14.135</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>11.14</v>
+        <v>11.137</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.27</v>
+        <v>0.273</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>31.71</v>
+        <v>31.707</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>26.17</v>
+        <v>26.165</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>11.53</v>
+        <v>11.531</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>41.16</v>
+        <v>41.163</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>18.04</v>
+        <v>18.041</v>
       </c>
       <c r="J3" s="4" t="n">
         <v>8.31</v>
@@ -789,73 +789,73 @@
         <v>12.57</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>13.35</v>
+        <v>13.353</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>13.66</v>
+        <v>13.663</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>3.74</v>
+        <v>3.742</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>11.31</v>
+        <v>11.314</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>16.42</v>
+        <v>16.423</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>9.69</v>
+        <v>9.694000000000001</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.23</v>
+        <v>0.234</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.58</v>
+        <v>0.584</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>169.78</v>
+        <v>169.777</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>32.5</v>
+        <v>32.505</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>10.59</v>
+        <v>10.595</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>21.42</v>
+        <v>21.419</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>12.17</v>
+        <v>12.173</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>1.53</v>
+        <v>1.528</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>20.87</v>
+        <v>20.868</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>9.43</v>
+        <v>9.429</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>9.1</v>
+        <v>9.097</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>10.75</v>
+        <v>10.753</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>14.05</v>
+        <v>14.046</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.42</v>
+        <v>0.419</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>37.23</v>
+        <v>37.226</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>6.55</v>
+        <v>6.548</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>13.07</v>
+        <v>13.069</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>44781.85416666666</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>18.2</v>
+        <v>18.198</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>14</v>
+        <v>13.998</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.45</v>
+        <v>0.453</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>40.3</v>
+        <v>40.304</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>33.23</v>
+        <v>33.228</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>14.6</v>
+        <v>14.596</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>56.3</v>
+        <v>56.303</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>22.73</v>
+        <v>22.733</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>10.37</v>
+        <v>10.368</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>15.58</v>
+        <v>15.578</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>16.63</v>
+        <v>16.626</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>17.21</v>
+        <v>17.213</v>
       </c>
       <c r="N4" s="4" t="n">
         <v>4.71</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>14.39</v>
+        <v>14.392</v>
       </c>
       <c r="P4" s="4" t="n">
         <v>20.85</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>12.17</v>
+        <v>12.167</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.23</v>
+        <v>0.234</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.66</v>
+        <v>0.655</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>215.66</v>
+        <v>215.662</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>41</v>
+        <v>40.995</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>13.4</v>
+        <v>13.403</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>27.36</v>
+        <v>27.363</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>14.99</v>
+        <v>14.987</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>1.92</v>
+        <v>1.922</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>27.69</v>
+        <v>27.691</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>11.92</v>
+        <v>11.918</v>
       </c>
       <c r="AB4" s="4" t="n">
         <v>11.03</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>12.98</v>
+        <v>12.977</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>17.48</v>
+        <v>17.483</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.28</v>
+        <v>0.281</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>51.15</v>
+        <v>51.146</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>7.98</v>
+        <v>7.976</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>16.68</v>
+        <v>16.679</v>
       </c>
     </row>
     <row r="5">
@@ -1064,110 +1064,6 @@
       </c>
       <c r="AH5" s="4" t="n">
         <v>19.78</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44781.86804398148</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>9.74</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>7.51</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.22</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>21.68</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>17.83</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>7.84</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>34.78</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>12.27</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>5.63</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>8.44</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>8.99</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>9.24</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>2.54</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>11.27</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>6.55</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>112.74</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>22.22</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>7.19</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>14.81</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>8.119999999999999</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>16.44</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>6.42</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>6</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>7.03</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>9.460000000000001</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>31.75</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>8.970000000000001</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_76.xlsx
+++ b/DATA_goal/Junction_Flooding_76.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH5"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,7 +469,7 @@
     <col width="7" customWidth="1" min="25" max="25"/>
     <col width="8" customWidth="1" min="26" max="26"/>
     <col width="8" customWidth="1" min="27" max="27"/>
-    <col width="7" customWidth="1" min="28" max="28"/>
+    <col width="8" customWidth="1" min="28" max="28"/>
     <col width="8" customWidth="1" min="29" max="29"/>
     <col width="8" customWidth="1" min="30" max="30"/>
     <col width="7" customWidth="1" min="31" max="31"/>
@@ -970,100 +970,204 @@
         <v>21.68</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>16.52</v>
+        <v>16.524</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.6</v>
+        <v>0.601</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>47.74</v>
+        <v>47.736</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>39.37</v>
+        <v>39.368</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>17.27</v>
+        <v>17.269</v>
       </c>
       <c r="H5" s="4" t="n">
         <v>67.41</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>26.81</v>
+        <v>26.815</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>12.17</v>
+        <v>12.169</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>18.24</v>
+        <v>18.241</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>19.51</v>
+        <v>19.511</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>20.33</v>
+        <v>20.326</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>5.56</v>
+        <v>5.555</v>
       </c>
       <c r="O5" s="4" t="n">
         <v>17.07</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>24.67</v>
+        <v>24.666</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>14.34</v>
+        <v>14.339</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.25</v>
+        <v>0.249</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.73</v>
+        <v>0.729</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>255.77</v>
+        <v>255.773</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>48.37</v>
+        <v>48.368</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>15.85</v>
+        <v>15.854</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>32.46</v>
+        <v>32.459</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>17.51</v>
+        <v>17.508</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>2.27</v>
+        <v>2.267</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>32.9</v>
+        <v>32.901</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>14.08</v>
+        <v>14.079</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>12.79</v>
+        <v>12.792</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>15.04</v>
+        <v>15.037</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>20.52</v>
+        <v>20.516</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.21</v>
+        <v>0.209</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>61.19</v>
+        <v>61.186</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>9.289999999999999</v>
+        <v>9.291</v>
       </c>
       <c r="AH5" s="4" t="n">
         <v>19.78</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
+        <v>44781.86804398148</v>
+      </c>
+      <c r="B6" s="4" t="n">
+        <v>9.74</v>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>7.51</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>21.68</v>
+      </c>
+      <c r="F6" s="4" t="n">
+        <v>17.83</v>
+      </c>
+      <c r="G6" s="4" t="n">
+        <v>7.84</v>
+      </c>
+      <c r="H6" s="4" t="n">
+        <v>34.78</v>
+      </c>
+      <c r="I6" s="4" t="n">
+        <v>12.27</v>
+      </c>
+      <c r="J6" s="4" t="n">
+        <v>5.63</v>
+      </c>
+      <c r="K6" s="4" t="n">
+        <v>8.44</v>
+      </c>
+      <c r="L6" s="4" t="n">
+        <v>8.99</v>
+      </c>
+      <c r="M6" s="4" t="n">
+        <v>9.24</v>
+      </c>
+      <c r="N6" s="4" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="O6" s="4" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="P6" s="4" t="n">
+        <v>11.27</v>
+      </c>
+      <c r="Q6" s="4" t="n">
+        <v>6.55</v>
+      </c>
+      <c r="R6" s="4" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="S6" s="4" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="T6" s="4" t="n">
+        <v>112.74</v>
+      </c>
+      <c r="U6" s="4" t="n">
+        <v>22.22</v>
+      </c>
+      <c r="V6" s="4" t="n">
+        <v>7.19</v>
+      </c>
+      <c r="W6" s="4" t="n">
+        <v>14.81</v>
+      </c>
+      <c r="X6" s="4" t="n">
+        <v>8.119999999999999</v>
+      </c>
+      <c r="Y6" s="4" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="Z6" s="4" t="n">
+        <v>16.44</v>
+      </c>
+      <c r="AA6" s="4" t="n">
+        <v>6.42</v>
+      </c>
+      <c r="AB6" s="4" t="n">
+        <v>6</v>
+      </c>
+      <c r="AC6" s="4" t="n">
+        <v>7.03</v>
+      </c>
+      <c r="AD6" s="4" t="n">
+        <v>9.460000000000001</v>
+      </c>
+      <c r="AE6" s="4" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="AF6" s="4" t="n">
+        <v>31.75</v>
+      </c>
+      <c r="AG6" s="4" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="AH6" s="4" t="n">
+        <v>8.970000000000001</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_76.xlsx
+++ b/DATA_goal/Junction_Flooding_76.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,7 +469,7 @@
     <col width="7" customWidth="1" min="25" max="25"/>
     <col width="8" customWidth="1" min="26" max="26"/>
     <col width="8" customWidth="1" min="27" max="27"/>
-    <col width="8" customWidth="1" min="28" max="28"/>
+    <col width="7" customWidth="1" min="28" max="28"/>
     <col width="8" customWidth="1" min="29" max="29"/>
     <col width="8" customWidth="1" min="30" max="30"/>
     <col width="7" customWidth="1" min="31" max="31"/>
@@ -970,204 +970,100 @@
         <v>21.68</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>16.524</v>
+        <v>16.52</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.601</v>
+        <v>0.6</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>47.736</v>
+        <v>47.74</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>39.368</v>
+        <v>39.37</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>17.269</v>
+        <v>17.27</v>
       </c>
       <c r="H5" s="4" t="n">
         <v>67.41</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>26.815</v>
+        <v>26.81</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>12.169</v>
+        <v>12.17</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>18.241</v>
+        <v>18.24</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>19.511</v>
+        <v>19.51</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>20.326</v>
+        <v>20.33</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>5.555</v>
+        <v>5.56</v>
       </c>
       <c r="O5" s="4" t="n">
         <v>17.07</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>24.666</v>
+        <v>24.67</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>14.339</v>
+        <v>14.34</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.249</v>
+        <v>0.25</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.729</v>
+        <v>0.73</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>255.773</v>
+        <v>255.77</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>48.368</v>
+        <v>48.37</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>15.854</v>
+        <v>15.85</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>32.459</v>
+        <v>32.46</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>17.508</v>
+        <v>17.51</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>2.267</v>
+        <v>2.27</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>32.901</v>
+        <v>32.9</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>14.079</v>
+        <v>14.08</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>12.792</v>
+        <v>12.79</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>15.037</v>
+        <v>15.04</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>20.516</v>
+        <v>20.52</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.209</v>
+        <v>0.21</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>61.186</v>
+        <v>61.19</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>9.291</v>
+        <v>9.289999999999999</v>
       </c>
       <c r="AH5" s="4" t="n">
         <v>19.78</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44781.86804398148</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>9.74</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>7.51</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.22</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>21.68</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>17.83</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>7.84</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>34.78</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>12.27</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>5.63</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>8.44</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>8.99</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>9.24</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>2.54</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>11.27</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>6.55</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>112.74</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>22.22</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>7.19</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>14.81</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>8.119999999999999</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>16.44</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>6.42</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>6</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>7.03</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>9.460000000000001</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>31.75</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>8.970000000000001</v>
       </c>
     </row>
   </sheetData>
